--- a/DoAnHTTT/src/main/webapp/File/GradeFill.xlsx
+++ b/DoAnHTTT/src/main/webapp/File/GradeFill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>ID_Course</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Toán cao cấp A1</t>
+  </si>
+  <si>
+    <t>"1_2018"</t>
+  </si>
+  <si>
+    <t>"18130001"</t>
+  </si>
+  <si>
+    <t>"1_2019"</t>
   </si>
 </sst>
 </file>
@@ -381,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +473,108 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>7.1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5.5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>7.1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
